--- a/TestData/DeviationPositive.xlsx
+++ b/TestData/DeviationPositive.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2BCC63-C3A6-4B80-AA17-8D342D3B3DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="17"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DevLogin" sheetId="1" r:id="rId1"/>
@@ -16,23 +17,24 @@
     <sheet name="DevLoginAppr" sheetId="7" r:id="rId7"/>
     <sheet name="DevOTD" sheetId="8" r:id="rId8"/>
     <sheet name="DevQAD" sheetId="9" r:id="rId9"/>
-    <sheet name="DocRev" sheetId="10" r:id="rId10"/>
-    <sheet name="DocAppr" sheetId="11" r:id="rId11"/>
-    <sheet name="DocTask" sheetId="12" r:id="rId12"/>
-    <sheet name="DocExe" sheetId="13" r:id="rId13"/>
-    <sheet name="DocCls" sheetId="14" r:id="rId14"/>
-    <sheet name="DevCls" sheetId="15" r:id="rId15"/>
-    <sheet name="DevClsReI" sheetId="16" r:id="rId16"/>
-    <sheet name="DevClsAppr" sheetId="17" r:id="rId17"/>
-    <sheet name="DocClsEM" sheetId="18" r:id="rId18"/>
-    <sheet name="devETD" sheetId="19" r:id="rId19"/>
+    <sheet name="DevLgnNoAct" sheetId="20" r:id="rId10"/>
+    <sheet name="DocRev" sheetId="10" r:id="rId11"/>
+    <sheet name="DocAppr" sheetId="11" r:id="rId12"/>
+    <sheet name="DocTask" sheetId="12" r:id="rId13"/>
+    <sheet name="DocExe" sheetId="13" r:id="rId14"/>
+    <sheet name="DocCls" sheetId="14" r:id="rId15"/>
+    <sheet name="DevCls" sheetId="15" r:id="rId16"/>
+    <sheet name="DevClsReI" sheetId="16" r:id="rId17"/>
+    <sheet name="DevClsAppr" sheetId="17" r:id="rId18"/>
+    <sheet name="DocClsEM" sheetId="18" r:id="rId19"/>
+    <sheet name="devETD" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>block</t>
   </si>
@@ -213,12 +215,33 @@
   <si>
     <t>1</t>
   </si>
+  <si>
+    <t>rootCauseDetails</t>
+  </si>
+  <si>
+    <t>Root cause Datails</t>
+  </si>
+  <si>
+    <t>Human Error</t>
+  </si>
+  <si>
+    <t>reasonForCA</t>
+  </si>
+  <si>
+    <t>Hod review done</t>
+  </si>
+  <si>
+    <t>CA not required</t>
+  </si>
+  <si>
+    <t>PA not required</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +302,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -325,7 +356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,9 +388,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,6 +440,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,14 +633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -586,7 +653,7 @@
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,7 +685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -657,21 +724,63 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA07BC2-322B-475B-878B-AFA9908532F8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -681,25 +790,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -709,21 +818,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -731,7 +840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -745,25 +854,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -773,23 +882,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -799,25 +908,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -827,21 +936,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -849,7 +958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -862,25 +971,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -890,15 +999,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -906,7 +1015,7 @@
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -926,7 +1035,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -951,40 +1060,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -998,7 +1082,7 @@
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1067,22 +1151,47 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1093,19 +1202,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1127,21 +1236,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1152,7 +1261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1169,19 +1278,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1189,7 +1298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1203,24 +1312,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -1231,24 +1340,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -1259,32 +1368,41 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
